--- a/Tag 2 Auswertungen/Ethanol Auswertung.xlsx
+++ b/Tag 2 Auswertungen/Ethanol Auswertung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maren\Documents\GitHub\Biochemie\Tag 2 Auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E68729-A95A-4FA3-9CF9-EAA003381F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369E3CF4-9AB0-43FA-8916-F33F3222C0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.7.3.0
 Tecan.At.Common.DocumentManagement, 3.7.3.0
@@ -112,7 +112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MTP, V_3.37_07/12_Infinite (Jul 20 2012/13.56.47)
 HCP, V_2.02_05/06_HCP (May 23 2006/14.05.27)
@@ -375,7 +375,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -620,7 +620,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -728,7 +728,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -994,7 +994,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1032,7 +1032,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="263227967"/>
@@ -1116,7 +1116,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1154,7 +1154,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="263228799"/>
@@ -1202,7 +1202,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2133,19 +2133,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63:D67"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" customWidth="1"/>
-    <col min="10" max="10" width="12.46484375" customWidth="1"/>
-    <col min="11" max="11" width="13.1328125" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2212,12 +2212,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2257,12 +2257,12 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -2396,33 +2396,33 @@
         <v>0.47749999165534973</v>
       </c>
       <c r="F29">
-        <v>0.50480002164840698</v>
+        <v>0.50480002164840598</v>
       </c>
       <c r="G29">
         <v>0.56220000982284546</v>
       </c>
       <c r="H29">
         <f>HARMEAN(E29:G29)</f>
-        <v>0.51247450427150643</v>
+        <v>0.5124745042715062</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="5">
         <f>(H29-0.0386)*10/3.1933</f>
-        <v>1.4839648773103262</v>
+        <v>1.4839648773103253</v>
       </c>
       <c r="K29">
         <f t="shared" ref="K29:K36" si="0">J29*7.89</f>
-        <v>11.708482881978474</v>
+        <v>11.708482881978467</v>
       </c>
       <c r="L29" s="15">
         <f>HARMEAN(J29,J30)</f>
-        <v>0.55870047487080154</v>
+        <v>0.55870047487080121</v>
       </c>
       <c r="M29" s="15">
         <f>HARMEAN(K29,K30)</f>
-        <v>4.4081467467306243</v>
+        <v>4.4081467467306208</v>
       </c>
       <c r="O29">
         <v>8.1877488922211388</v>
@@ -2435,7 +2435,7 @@
         <v>5.355891378105448</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -2452,25 +2452,25 @@
         <v>1.0112999677658081</v>
       </c>
       <c r="F30">
-        <v>1.2446999549865723</v>
+        <v>1.24469995498657</v>
       </c>
       <c r="G30">
         <v>1.1833000183105469</v>
       </c>
       <c r="H30">
         <f t="shared" ref="H30:H36" si="1">HARMEAN(E30:G30)</f>
-        <v>1.1375153784198804</v>
+        <v>1.1375153784198797</v>
       </c>
       <c r="I30" t="s">
         <v>47</v>
       </c>
       <c r="J30" s="5">
         <f>(H30-0.0386)*1/3.1933</f>
-        <v>0.34413158125446419</v>
+        <v>0.34413158125446397</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>2.7151981760977222</v>
+        <v>2.7151981760977204</v>
       </c>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
@@ -2485,7 +2485,7 @@
         <v>4.946921285900622</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2523,12 +2523,12 @@
         <v>12.555669295681543</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" ref="L31:L36" si="4">HARMEAN(J31,J32)</f>
-        <v>0.59869069809278075</v>
+        <f t="shared" ref="L31" si="4">HARMEAN(J31,J32)</f>
+        <v>0.59869069809277997</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" ref="M31:M36" si="5">HARMEAN(K31,K32)</f>
-        <v>4.7236696079520399</v>
+        <f t="shared" ref="M31" si="5">HARMEAN(K31,K32)</f>
+        <v>4.7236696079520346</v>
       </c>
       <c r="O31">
         <v>6.7488305788504972</v>
@@ -2541,7 +2541,7 @@
         <v>4.4246332292238728</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2558,25 +2558,25 @@
         <v>1.2884999513626099</v>
       </c>
       <c r="F32">
-        <v>1.2287000417709351</v>
+        <v>1.22870004177093</v>
       </c>
       <c r="G32">
         <v>1.1399999856948853</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>1.2159742305428978</v>
+        <v>1.215974230542896</v>
       </c>
       <c r="I32" t="s">
         <v>65</v>
       </c>
       <c r="J32" s="6">
         <f>(H32-0.0386)*1/3.1933</f>
-        <v>0.36870141563363851</v>
+        <v>0.36870141563363795</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>2.9090541693494076</v>
+        <v>2.9090541693494032</v>
       </c>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
@@ -2591,7 +2591,7 @@
         <v>2.1739830307699854</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0.46209999918937683</v>
       </c>
       <c r="F33">
-        <v>0.46369999647140503</v>
+        <v>0.46369999647140497</v>
       </c>
       <c r="G33">
         <v>0.47670000791549683</v>
@@ -2629,15 +2629,15 @@
         <v>10.595015557559245</v>
       </c>
       <c r="L33" s="15">
-        <f t="shared" ref="L33:L36" si="6">HARMEAN(J33,J34)</f>
-        <v>0.53864873524869872</v>
+        <f t="shared" ref="L33" si="6">HARMEAN(J33,J34)</f>
+        <v>0.53864873524869861</v>
       </c>
       <c r="M33" s="15">
-        <f t="shared" ref="M33:M36" si="7">HARMEAN(K33,K34)</f>
-        <v>4.2499385211122327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+        <f t="shared" ref="M33" si="7">HARMEAN(K33,K34)</f>
+        <v>4.2499385211122318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2654,30 +2654,30 @@
         <v>1.0671999454498291</v>
       </c>
       <c r="F34">
-        <v>1.1402000188827515</v>
+        <v>1.1402000188827499</v>
       </c>
       <c r="G34">
         <v>1.1390000581741333</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>1.1143991191807043</v>
+        <v>1.1143991191807039</v>
       </c>
       <c r="I34" t="s">
         <v>48</v>
       </c>
       <c r="J34" s="7">
         <f>(H34-0.0386)*1/3.1933</f>
-        <v>0.33689259361184493</v>
+        <v>0.33689259361184482</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>2.6580825635974565</v>
+        <v>2.6580825635974556</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2694,36 +2694,36 @@
         <v>0.32640001177787781</v>
       </c>
       <c r="F35">
-        <v>0.30210000276565552</v>
+        <v>0.30210000276565602</v>
       </c>
       <c r="G35">
         <v>0.30779999494552612</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>0.31176117477315007</v>
+        <v>0.31176117477315024</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>69</v>
       </c>
       <c r="J35" s="8">
         <f t="shared" si="3"/>
-        <v>0.8554197061758998</v>
+        <v>0.85541970617590024</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>6.7492614817278493</v>
+        <v>6.7492614817278529</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" ref="L35:L36" si="8">HARMEAN(J35,J36)</f>
-        <v>0.15299287169524134</v>
+        <f t="shared" ref="L35" si="8">HARMEAN(J35,J36)</f>
+        <v>0.15163458556212439</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" ref="M35:M36" si="9">HARMEAN(K35,K36)</f>
-        <v>1.207113757675454</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+        <f t="shared" ref="M35" si="9">HARMEAN(K35,K36)</f>
+        <v>1.1963968800851612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2743,27 +2743,27 @@
         <v>0.30279999971389771</v>
       </c>
       <c r="G36">
-        <v>0.31069999933242798</v>
+        <v>0.30279999971389771</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>0.30686591370531741</v>
+        <v>0.30425259943219102</v>
       </c>
       <c r="I36" t="s">
         <v>49</v>
       </c>
       <c r="J36" s="8">
         <f>(H36-0.0386)*1/3.1933</f>
-        <v>8.4008991859617757E-2</v>
+        <v>8.3190617678323683E-2</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>0.66283094577238411</v>
+        <v>0.65637397348197379</v>
       </c>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>53</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>1.9054922086891333E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>1.6029031572384937E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>1.9461840489491403E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>1.2297960294465273E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>1.1426863962791857E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>3.3266782344619446E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>4.8589516809759661E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2944,22 +2944,22 @@
         <v>6.8909489423461645E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>57</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>47</v>
       </c>
@@ -2982,10 +2982,10 @@
       </c>
       <c r="D64" s="14">
         <f>B69/($A$62-B64)</f>
-        <v>8.4352194531489344E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+        <v>8.4352194531489302E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>65</v>
       </c>
@@ -2997,10 +2997,10 @@
       </c>
       <c r="D65" s="14">
         <f>B70/($A$62-B65)</f>
-        <v>7.3147905065872973E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
+        <v>7.3147905065872876E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>48</v>
       </c>
@@ -3012,10 +3012,10 @@
       </c>
       <c r="D66" s="14">
         <f>B71/($A$62-B66)</f>
-        <v>5.9308002381520009E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+        <v>5.9308002381520002E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>49</v>
       </c>
@@ -3027,48 +3027,48 @@
       </c>
       <c r="D67" s="14">
         <f>B72/($A$62-B67)</f>
-        <v>2.4808750536133808E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2.4588495948715431E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B69" s="12">
         <f>L29</f>
-        <v>0.55870047487080154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+        <v>0.55870047487080121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B70" s="12">
         <f>L31</f>
-        <v>0.59869069809278075</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+        <v>0.59869069809277997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B71" s="12">
         <f>L33</f>
-        <v>0.53864873524869872</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+        <v>0.53864873524869861</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B72" s="12">
         <f>L35</f>
-        <v>0.15299287169524134</v>
+        <v>0.15163458556212439</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3095,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
